--- a/final results/linux final results.xlsx
+++ b/final results/linux final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E37AB75-527F-46CC-B544-0743A58ED9BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D5E15-FB75-4559-9E82-F2AED3830643}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{50F53760-A37C-49A1-BDA5-33478AA42089}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>program</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>total_time</t>
   </si>
+  <si>
+    <t>program_time</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +171,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2875,6 +2881,3143 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Tempo esecuzione totale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>- Linux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>c++ time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>281645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3874814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1875053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C143-4DE6-8C31-081D3DBD6CF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>matlab time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$M$9:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>335.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9871.0570000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17918.392999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29647.617999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C143-4DE6-8C31-081D3DBD6CF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>python time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$M$13:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87.960657000010656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2727.819316999984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16800.059219000046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36872.963588999977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28606.411680000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189411.73485400001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104180.51850599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C143-4DE6-8C31-081D3DBD6CF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>r time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$M$20:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42.062520980834975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1760.3082656860354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13860.751867294321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38479.495286941521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14264.599800109865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192866.52612686151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171747.92671203613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C143-4DE6-8C31-081D3DBD6CF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1671424607"/>
+        <c:axId val="1898810063"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C143-4DE6-8C31-081D3DBD6CF6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1671424607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1898810063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1898810063"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671424607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Memoria occupata - Linux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chol_size c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2774968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27857172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406911040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>904888848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435446512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2671760416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2039944908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C17A-47E4-ACDC-21CE03F667F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chol_size matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$9:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4186000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368859400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1268173672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2498198312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C17A-47E4-ACDC-21CE03F667F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>chol_size python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3445756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39794652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241522768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>455155020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505652608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1694291848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1323715140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C17A-47E4-ACDC-21CE03F667F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>chol_size r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2129136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27083120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272271008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531014880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335653536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1639027704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1754322104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C17A-47E4-ACDC-21CE03F667F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1895700479"/>
+        <c:axId val="1848010687"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C17A-47E4-ACDC-21CE03F667F7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1895700479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848010687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848010687"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895700479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Tempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> import - Linux</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>import c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8600-48A1-AF05-51C1667ED482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>import matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.95599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>862.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1484.396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8600-48A1-AF05-51C1667ED482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>import python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>296.71431399999904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488.78533399999924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1716.8526030000066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2613.502457999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3847.4316719999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4493.537941999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7367.7322310000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8600-48A1-AF05-51C1667ED482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>import r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$20:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>190.58465957641599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14434.382438659701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12376.389265060399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34891.998529434197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608837.18943595898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1235971.68374062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7685745.2363967896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8600-48A1-AF05-51C1667ED482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060553743"/>
+        <c:axId val="1847990719"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8600-48A1-AF05-51C1667ED482}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060553743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1847990719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1847990719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060553743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Chol - Linux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chol c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>549121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1933914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>934261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F057-4617-9A83-356348B0491F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chol matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$H$9:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>167.16900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4901.5370000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8833.5239999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14608.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F057-4617-9A83-356348B0491F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>chol python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3445756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39794652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241522768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>455155020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505652608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1694291848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1323715140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F057-4617-9A83-356348B0491F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>chol r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2129136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27083120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272271008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531014880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335653536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1639027704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1754322104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F057-4617-9A83-356348B0491F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148186207"/>
+        <c:axId val="39188671"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-F057-4617-9A83-356348B0491F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148186207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39188671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39188671"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148186207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -3023,6 +6166,154 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4533,6 +7824,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5181,13 +10484,157 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1560E4-B676-4732-A3FB-2B7E73F26725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DC9924-3577-4C2D-91DE-9442E7A6F1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C68C9BB-DD8D-45E3-9E3F-BFD9692D128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397C6797-1F2D-4D9D-9F7B-0A51D277F271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="1" xr16:uid="{CBCA28BE-94D0-4590-A8DA-10E4C4F8631C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13" unboundColumnsRight="1">
-    <queryTableFields count="12">
+  <queryTableRefresh nextId="14" unboundColumnsRight="2">
+    <queryTableFields count="13">
       <queryTableField id="1" name="program" tableColumnId="1"/>
       <queryTableField id="2" name="name" tableColumnId="2"/>
       <queryTableField id="3" name="import" tableColumnId="3"/>
@@ -5200,20 +10647,21 @@
       <queryTableField id="10" name="sol_time" tableColumnId="10"/>
       <queryTableField id="11" name="err" tableColumnId="11"/>
       <queryTableField id="12" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE467DBB-2B1A-4BF7-9BA4-290E9A2E8B68}" name="Linux_Results_2020_05_22" displayName="Linux_Results_2020_05_22" ref="A1:L26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L26" xr:uid="{CD5A9988-AD5F-43BB-98DD-E7F990E5588D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE467DBB-2B1A-4BF7-9BA4-290E9A2E8B68}" name="Linux_Results_2020_05_22" displayName="Linux_Results_2020_05_22" ref="A1:M26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M26" xr:uid="{CD5A9988-AD5F-43BB-98DD-E7F990E5588D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2ABC054C-B742-4D0F-86C9-856019FC3096}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EE9BFB0E-FCCA-47FD-9524-E8F0B571C67B}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="1"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{2ABC054C-B742-4D0F-86C9-856019FC3096}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EE9BFB0E-FCCA-47FD-9524-E8F0B571C67B}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{0760F4B2-0EF8-48F6-BB9A-74DD8902752A}" uniqueName="3" name="import" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{5A58A9B7-ACC2-47F5-90B2-7A19238592DC}" uniqueName="4" name="rows" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{06CAE7F3-DAB6-4F9B-98EC-3D9AD87D57CD}" uniqueName="5" name="cols" queryTableFieldId="5"/>
@@ -5223,8 +10671,11 @@
     <tableColumn id="9" xr3:uid="{1CC05CC8-6333-4A77-9FAF-55CDEFBE2125}" uniqueName="9" name="chol_size" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{F6789255-DFE4-4B07-AA20-8F6420E7CEC6}" uniqueName="10" name="sol_time" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{E42BC745-7F75-438C-96D1-EC670E398328}" uniqueName="11" name="err" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{86DC0AD7-CAA3-4603-A709-57A23B2BD159}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{86DC0AD7-CAA3-4603-A709-57A23B2BD159}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="1">
       <calculatedColumnFormula>SUM(H2,J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{C32A0E01-FB08-49F6-BDB1-E6E98E0A5B00}" uniqueName="13" name="program_time" queryTableFieldId="13" dataDxfId="0">
+      <calculatedColumnFormula>SUM(L2,H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5528,10 +10979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3880F15A-7AC1-4431-829F-77AC74D2BF3E}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5547,9 +10998,10 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5586,8 +11038,11 @@
       <c r="L1" t="s">
         <v>22</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5622,11 +11077,15 @@
         <v>7.9530000000000003E-7</v>
       </c>
       <c r="L2">
-        <f>SUM(H2,J2)</f>
+        <f t="shared" ref="L2:L26" si="0">SUM(H2,J2)</f>
         <v>196</v>
       </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M26" si="1">SUM(L2,H2)</f>
+        <v>379</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5661,11 +11120,15 @@
         <v>2.7969900000000002E-16</v>
       </c>
       <c r="L3">
-        <f>SUM(H3,J3)</f>
+        <f t="shared" si="0"/>
         <v>4092</v>
       </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>8034</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5700,11 +11163,15 @@
         <v>1.8845500000000001E-12</v>
       </c>
       <c r="L4">
-        <f>SUM(H4,J4)</f>
+        <f t="shared" si="0"/>
         <v>141335</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>281645</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -5739,11 +11206,15 @@
         <v>6.3179100000000001E-12</v>
       </c>
       <c r="L5">
-        <f>SUM(H5,J5)</f>
+        <f t="shared" si="0"/>
         <v>551363</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1100484</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5778,11 +11249,15 @@
         <v>2.35914E-12</v>
       </c>
       <c r="L6">
-        <f>SUM(H6,J6)</f>
+        <f t="shared" si="0"/>
         <v>86074</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>170552</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -5817,11 +11292,15 @@
         <v>7.6493399999999997E-11</v>
       </c>
       <c r="L7">
-        <f>SUM(H7,J7)</f>
+        <f t="shared" si="0"/>
         <v>1940900</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>3874814</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5856,11 +11335,15 @@
         <v>7.5445000000000004E-12</v>
       </c>
       <c r="L8">
-        <f>SUM(H8,J8)</f>
+        <f t="shared" si="0"/>
         <v>940792</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1875053</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5895,11 +11378,15 @@
         <v>8.5530676175293696E-7</v>
       </c>
       <c r="L9">
-        <f>SUM(H9,J9)</f>
+        <f t="shared" si="0"/>
         <v>168.453</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>335.62200000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -5934,11 +11421,15 @@
         <v>3.2036731129880599E-16</v>
       </c>
       <c r="L10">
-        <f>SUM(H10,J10)</f>
+        <f t="shared" si="0"/>
         <v>4969.5200000000004</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>9871.0570000000007</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5973,11 +11464,15 @@
         <v>2.3847712940277298E-13</v>
       </c>
       <c r="L11">
-        <f>SUM(H11,J11)</f>
+        <f t="shared" si="0"/>
         <v>9084.8689999999988</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>17918.392999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -6012,11 +11507,15 @@
         <v>6.7556406837391204E-13</v>
       </c>
       <c r="L12">
-        <f>SUM(H12,J12)</f>
+        <f t="shared" si="0"/>
         <v>15039.547999999999</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>29647.617999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6051,11 +11550,15 @@
         <v>6.3730398920252567E-7</v>
       </c>
       <c r="L13">
-        <f>SUM(H13,J13)</f>
+        <f t="shared" si="0"/>
         <v>48.609730000009677</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>87.960657000010656</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -6090,11 +11593,15 @@
         <v>2.4191432592763325E-16</v>
       </c>
       <c r="L14">
-        <f>SUM(H14,J14)</f>
+        <f t="shared" si="0"/>
         <v>1369.4284959999834</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>2727.819316999984</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -6129,11 +11636,15 @@
         <v>2.4936662481657558E-14</v>
       </c>
       <c r="L15">
-        <f>SUM(H15,J15)</f>
+        <f t="shared" si="0"/>
         <v>8423.8557530000253</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>16800.059219000046</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -6168,11 +11679,15 @@
         <v>3.79734620529076E-13</v>
       </c>
       <c r="L16">
-        <f>SUM(H16,J16)</f>
+        <f t="shared" si="0"/>
         <v>18479.108238999983</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>36872.963588999977</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -6207,11 +11722,15 @@
         <v>1.2186342978855653E-12</v>
       </c>
       <c r="L17">
-        <f>SUM(H17,J17)</f>
+        <f t="shared" si="0"/>
         <v>14360.728626</v>
       </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>28606.411680000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -6246,11 +11765,15 @@
         <v>2.6439542358305498E-11</v>
       </c>
       <c r="L18">
-        <f>SUM(H18,J18)</f>
+        <f t="shared" si="0"/>
         <v>94872.020334000001</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>189411.73485400001</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -6285,11 +11808,15 @@
         <v>2.7419663599645289E-12</v>
       </c>
       <c r="L19">
-        <f>SUM(H19,J19)</f>
+        <f t="shared" si="0"/>
         <v>52252.882108999998</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>104180.51850599999</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -6324,11 +11851,15 @@
         <v>7.2985734767509496E-7</v>
       </c>
       <c r="L20">
-        <f>SUM(H20,J20)</f>
+        <f t="shared" si="0"/>
         <v>21.860837936401371</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>42.062520980834975</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -6363,11 +11894,15 @@
         <v>2.7905845826963299E-16</v>
       </c>
       <c r="L21">
-        <f>SUM(H21,J21)</f>
+        <f t="shared" si="0"/>
         <v>891.19601249694836</v>
       </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1760.3082656860354</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6402,11 +11937,15 @@
         <v>1.3026412782843E-13</v>
       </c>
       <c r="L22">
-        <f>SUM(H22,J22)</f>
+        <f t="shared" si="0"/>
         <v>7012.5026702880905</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>13860.751867294321</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6441,11 +11980,15 @@
         <v>1.27750318052995E-12</v>
       </c>
       <c r="L23">
-        <f>SUM(H23,J23)</f>
+        <f t="shared" si="0"/>
         <v>19399.470806121823</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>38479.495286941521</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -6480,11 +12023,15 @@
         <v>2.3078895379913298E-12</v>
       </c>
       <c r="L24">
-        <f>SUM(H24,J24)</f>
+        <f t="shared" si="0"/>
         <v>7253.3292770385751</v>
       </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>14264.599800109865</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -6519,11 +12066,15 @@
         <v>1.7218014336550301E-11</v>
       </c>
       <c r="L25">
-        <f>SUM(H25,J25)</f>
+        <f t="shared" si="0"/>
         <v>96955.595493316621</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>192866.52612686151</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -6558,8 +12109,12 @@
         <v>1.2908723645494E-12</v>
       </c>
       <c r="L26">
-        <f>SUM(H26,J26)</f>
+        <f t="shared" si="0"/>
         <v>86430.967092514038</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>171747.92671203613</v>
       </c>
     </row>
   </sheetData>

--- a/final results/linux final results.xlsx
+++ b/final results/linux final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D5E15-FB75-4559-9E82-F2AED3830643}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767BC401-BB3E-4C50-A132-3E575893009A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{50F53760-A37C-49A1-BDA5-33478AA42089}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>program</t>
   </si>
@@ -130,6 +130,9 @@
   <si>
     <t>program_time</t>
   </si>
+  <si>
+    <t>mem</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +174,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3749,7 +3755,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>chol_size c++</c:v>
+            <c:v>size c++</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3806,30 +3812,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$2:$I$8</c:f>
+              <c:f>Foglio2!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2774968</c:v>
+                  <c:v>3986492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27857172</c:v>
+                  <c:v>32117016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>406911040</c:v>
+                  <c:v>429100628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>904888848</c:v>
+                  <c:v>942407484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435446512</c:v>
+                  <c:v>481645316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2671760416</c:v>
+                  <c:v>2732435564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2039944908</c:v>
+                  <c:v>2138216736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,7 +3851,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>chol_size matlab</c:v>
+            <c:v>size matlab</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3902,21 +3908,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$9:$I$12</c:f>
+              <c:f>Foglio2!$N$9:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4186000</c:v>
+                  <c:v>5929552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368859400</c:v>
+                  <c:v>376068368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1268173672</c:v>
+                  <c:v>1299078704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2498198312</c:v>
+                  <c:v>2550527376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,7 +3938,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>chol_size python</c:v>
+            <c:v>size python</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3989,30 +3995,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:f>Foglio2!$N$13:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3445756</c:v>
+                  <c:v>4657280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39794652</c:v>
+                  <c:v>44054496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241522768</c:v>
+                  <c:v>263745764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>455155020</c:v>
+                  <c:v>492703560</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>505652608</c:v>
+                  <c:v>551851412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1694291848</c:v>
+                  <c:v>1754966996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1323715140</c:v>
+                  <c:v>1421986968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,7 +4034,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>chol_size r</c:v>
+            <c:v>size r</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4091,30 +4097,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:f>Foglio2!$N$20:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2129136</c:v>
+                  <c:v>3341752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27083120</c:v>
+                  <c:v>31344056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>272271008</c:v>
+                  <c:v>294461688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>531014880</c:v>
+                  <c:v>568534608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>335653536</c:v>
+                  <c:v>381853432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1639027704</c:v>
+                  <c:v>1699703944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754322104</c:v>
+                  <c:v>1852595024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,7 +5278,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Chol - Linux</a:t>
+              <a:t>Tempo decomposizione Cholesky - Linux</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5932,6 +5938,787 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="148186207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Errore - Linux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>err c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.9530000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7969900000000002E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8845500000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3179100000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.35914E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6493399999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5445000000000004E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D33-4422-8C5D-83D52F82094A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>err matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$9:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5530676175293696E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2036731129880599E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3847712940277298E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7556406837391204E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D33-4422-8C5D-83D52F82094A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>err python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$13:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.3730398920252567E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4191432592763325E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4936662481657558E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.79734620529076E-13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2186342978855653E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6439542358305498E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7419663599645289E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D33-4422-8C5D-83D52F82094A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>err r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$20:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.2985734767509496E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7905845826963299E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3026412782843E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27750318052995E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3078895379913298E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7218014336550301E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2908723645494E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D33-4422-8C5D-83D52F82094A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1659416191"/>
+        <c:axId val="1664402079"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name </c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-3D33-4422-8C5D-83D52F82094A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1659416191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664402079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664402079"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1659416191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6314,6 +7101,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9836,6 +10660,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10628,13 +11955,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B37EAE6-293D-46B8-AECA-6F7259E660F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="1" xr16:uid="{CBCA28BE-94D0-4590-A8DA-10E4C4F8631C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14" unboundColumnsRight="2">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="15" unboundColumnsRight="3">
+    <queryTableFields count="14">
       <queryTableField id="1" name="program" tableColumnId="1"/>
       <queryTableField id="2" name="name" tableColumnId="2"/>
       <queryTableField id="3" name="import" tableColumnId="3"/>
@@ -10648,20 +12011,21 @@
       <queryTableField id="11" name="err" tableColumnId="11"/>
       <queryTableField id="12" dataBound="0" tableColumnId="12"/>
       <queryTableField id="13" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE467DBB-2B1A-4BF7-9BA4-290E9A2E8B68}" name="Linux_Results_2020_05_22" displayName="Linux_Results_2020_05_22" ref="A1:M26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M26" xr:uid="{CD5A9988-AD5F-43BB-98DD-E7F990E5588D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE467DBB-2B1A-4BF7-9BA4-290E9A2E8B68}" name="Linux_Results_2020_05_22" displayName="Linux_Results_2020_05_22" ref="A1:N26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N26" xr:uid="{CD5A9988-AD5F-43BB-98DD-E7F990E5588D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2ABC054C-B742-4D0F-86C9-856019FC3096}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EE9BFB0E-FCCA-47FD-9524-E8F0B571C67B}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{2ABC054C-B742-4D0F-86C9-856019FC3096}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EE9BFB0E-FCCA-47FD-9524-E8F0B571C67B}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{0760F4B2-0EF8-48F6-BB9A-74DD8902752A}" uniqueName="3" name="import" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{5A58A9B7-ACC2-47F5-90B2-7A19238592DC}" uniqueName="4" name="rows" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{06CAE7F3-DAB6-4F9B-98EC-3D9AD87D57CD}" uniqueName="5" name="cols" queryTableFieldId="5"/>
@@ -10671,11 +12035,14 @@
     <tableColumn id="9" xr3:uid="{1CC05CC8-6333-4A77-9FAF-55CDEFBE2125}" uniqueName="9" name="chol_size" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{F6789255-DFE4-4B07-AA20-8F6420E7CEC6}" uniqueName="10" name="sol_time" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{E42BC745-7F75-438C-96D1-EC670E398328}" uniqueName="11" name="err" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{86DC0AD7-CAA3-4603-A709-57A23B2BD159}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{86DC0AD7-CAA3-4603-A709-57A23B2BD159}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="2">
       <calculatedColumnFormula>SUM(H2,J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C32A0E01-FB08-49F6-BDB1-E6E98E0A5B00}" uniqueName="13" name="program_time" queryTableFieldId="13" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{C32A0E01-FB08-49F6-BDB1-E6E98E0A5B00}" uniqueName="13" name="program_time" queryTableFieldId="13" dataDxfId="1">
       <calculatedColumnFormula>SUM(L2,H2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{1049B310-067F-4E91-9F45-6962883A7750}" uniqueName="14" name="mem" queryTableFieldId="14" dataDxfId="0">
+      <calculatedColumnFormula>SUM(I2,G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10979,10 +12346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3880F15A-7AC1-4431-829F-77AC74D2BF3E}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10999,9 +12366,10 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11041,8 +12409,11 @@
       <c r="M1" t="s">
         <v>23</v>
       </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -11084,8 +12455,12 @@
         <f t="shared" ref="M2:M26" si="1">SUM(L2,H2)</f>
         <v>379</v>
       </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N26" si="2">SUM(I2,G2)</f>
+        <v>3986492</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -11127,8 +12502,12 @@
         <f t="shared" si="1"/>
         <v>8034</v>
       </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>32117016</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -11170,8 +12549,12 @@
         <f t="shared" si="1"/>
         <v>281645</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>429100628</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -11213,8 +12596,12 @@
         <f t="shared" si="1"/>
         <v>1100484</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>942407484</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -11256,8 +12643,12 @@
         <f t="shared" si="1"/>
         <v>170552</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>481645316</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -11299,8 +12690,12 @@
         <f t="shared" si="1"/>
         <v>3874814</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>2732435564</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -11342,8 +12737,12 @@
         <f t="shared" si="1"/>
         <v>1875053</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>2138216736</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -11385,8 +12784,12 @@
         <f t="shared" si="1"/>
         <v>335.62200000000001</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>5929552</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -11428,8 +12831,12 @@
         <f t="shared" si="1"/>
         <v>9871.0570000000007</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>376068368</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -11471,8 +12878,12 @@
         <f t="shared" si="1"/>
         <v>17918.392999999996</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1299078704</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -11514,8 +12925,12 @@
         <f t="shared" si="1"/>
         <v>29647.617999999999</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>2550527376</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -11557,8 +12972,12 @@
         <f t="shared" si="1"/>
         <v>87.960657000010656</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>4657280</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -11600,8 +13019,12 @@
         <f t="shared" si="1"/>
         <v>2727.819316999984</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>44054496</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -11643,8 +13066,12 @@
         <f t="shared" si="1"/>
         <v>16800.059219000046</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>263745764</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -11686,8 +13113,12 @@
         <f t="shared" si="1"/>
         <v>36872.963588999977</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>492703560</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -11729,8 +13160,12 @@
         <f t="shared" si="1"/>
         <v>28606.411680000001</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>551851412</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -11772,8 +13207,12 @@
         <f t="shared" si="1"/>
         <v>189411.73485400001</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1754966996</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -11815,8 +13254,12 @@
         <f t="shared" si="1"/>
         <v>104180.51850599999</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>1421986968</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -11858,8 +13301,12 @@
         <f t="shared" si="1"/>
         <v>42.062520980834975</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>3341752</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -11901,8 +13348,12 @@
         <f t="shared" si="1"/>
         <v>1760.3082656860354</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>31344056</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -11944,8 +13395,12 @@
         <f t="shared" si="1"/>
         <v>13860.751867294321</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>294461688</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -11987,8 +13442,12 @@
         <f t="shared" si="1"/>
         <v>38479.495286941521</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>568534608</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -12030,8 +13489,12 @@
         <f t="shared" si="1"/>
         <v>14264.599800109865</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>381853432</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -12073,8 +13536,12 @@
         <f t="shared" si="1"/>
         <v>192866.52612686151</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>1699703944</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -12115,6 +13582,10 @@
       <c r="M26">
         <f t="shared" si="1"/>
         <v>171747.92671203613</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1852595024</v>
       </c>
     </row>
   </sheetData>

--- a/final results/linux final results.xlsx
+++ b/final results/linux final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767BC401-BB3E-4C50-A132-3E575893009A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A445D9-9E74-48DA-BDBC-D40BDE127849}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{50F53760-A37C-49A1-BDA5-33478AA42089}"/>
   </bookViews>
@@ -5562,30 +5562,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:f>Foglio2!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3445756</c:v>
+                  <c:v>39.350927000000979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39794652</c:v>
+                  <c:v>1358.3908210000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241522768</c:v>
+                  <c:v>8376.2034660000209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>455155020</c:v>
+                  <c:v>18393.855349999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>505652608</c:v>
+                  <c:v>14245.683054000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1694291848</c:v>
+                  <c:v>94539.714520000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1323715140</c:v>
+                  <c:v>51927.636397000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5664,30 +5664,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:f>Foglio2!$H$20:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2129136</c:v>
+                  <c:v>20.201683044433601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27083120</c:v>
+                  <c:v>869.11225318908703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>272271008</c:v>
+                  <c:v>6848.2491970062301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>531014880</c:v>
+                  <c:v>19080.024480819699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>335653536</c:v>
+                  <c:v>7011.27052307129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1639027704</c:v>
+                  <c:v>95910.930633544893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754322104</c:v>
+                  <c:v>85316.959619522095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5888,7 +5888,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12348,8 +12347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3880F15A-7AC1-4431-829F-77AC74D2BF3E}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/final results/linux final results.xlsx
+++ b/final results/linux final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A445D9-9E74-48DA-BDBC-D40BDE127849}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550578B3-272D-45FE-A003-15B047C09F6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{50F53760-A37C-49A1-BDA5-33478AA42089}"/>
   </bookViews>
@@ -12347,7 +12347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3880F15A-7AC1-4431-829F-77AC74D2BF3E}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
